--- a/biology/Zoologie/Les_Dinos_de_l'espace/Les_Dinos_de_l'espace.xlsx
+++ b/biology/Zoologie/Les_Dinos_de_l'espace/Les_Dinos_de_l'espace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Dinos_de_l%27espace</t>
+          <t>Les_Dinos_de_l'espace</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dinos de l'Espace (Dinosaucers) est une série télévisée d'animation américano-canadienne en 65 épisodes de 22 minutes créée par Michael E. Uslan et Benjamin Melniker, produite par DIC et Coca-Cola Communications, et diffusée du 14 septembre au 11 décembre 1987 en syndication.
-En France, onze épisodes ont été diffusés à partir du 5 septembre 1995 sur TF1 dans À Tout'Spip[2].
+En France, onze épisodes ont été diffusés à partir du 5 septembre 1995 sur TF1 dans À Tout'Spip.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Dinos_de_l%27espace</t>
+          <t>Les_Dinos_de_l'espace</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La planète Reptillion est un champ de bataille entre les dinos (Dinosaucers) menés par Allo et les forces démoniaques (les tyrannos) menées par Genghis Rex. Après une longue durée de chaos, Reptillion approche de la destruction. Les dinos sont contraints à chercher une nouvelle planète pour s'y installer. Laquelle ? La Terre ! Mais les forces maléfiques de Genghis Rex semblent elles aussi s'approcher de notre planète…
 Aidés par Paul, Sarah, David et Ryan, ils vont continuer cette palpitante bataille, la guerre ne fait que commencer.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Dinos_de_l%27espace</t>
+          <t>Les_Dinos_de_l'espace</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Producteur : Michael Maliani
 Producteurs exécutifs : Andy Heyward, Michael E. Uslan et Benjamin Melniker
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Dinos_de_l%27espace</t>
+          <t>Les_Dinos_de_l'espace</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Voix originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Len Carlson : Allo / Quackpot
 Rob Cowan (en) : Tricero
@@ -607,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Les_Dinos_de_l%27espace</t>
+          <t>Les_Dinos_de_l'espace</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,7 +643,9 @@
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Vallée des dinosaures (Dinosaur Valley)
@@ -703,7 +723,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Les_Dinos_de_l%27espace</t>
+          <t>Les_Dinos_de_l'espace</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -723,10 +743,54 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">En France
-Étant passée inaperçu en France (un mois d'antenne seulement[2]), la série est sortie en 5 VHS dont chaque cassette contient deux épisodes de la série.
-Liste des épisodes doublés et proposés en VHS
-L'Erreur fatale
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étant passée inaperçu en France (un mois d'antenne seulement), la série est sortie en 5 VHS dont chaque cassette contient deux épisodes de la série.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Dinos_de_l'espace</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Dinos_de_l%27espace</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sortie en vidéo</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Liste des épisodes doublés et proposés en VHS</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'Erreur fatale
 La Leçon de survie
 La Machine infernale
 Le Match des titans
@@ -735,9 +799,43 @@
 La Surprise partie
 Le Spectacle des dinosaures
 La Vallée des dinosaures
-Drôle de sport
-Dans le reste du monde
-Un DVD bas de gamme[Quoi ?] multi-zones est sorti aux États-Unis contenant l'intégrale de la série en anglais.
+Drôle de sport</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Les_Dinos_de_l'espace</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Dinos_de_l%27espace</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sortie en vidéo</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dans le reste du monde</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un DVD bas de gamme[Quoi ?] multi-zones est sorti aux États-Unis contenant l'intégrale de la série en anglais.
 </t>
         </is>
       </c>
